--- a/toxicity_detection/mitigation/toxicity_at_diff_lengths.xlsx
+++ b/toxicity_detection/mitigation/toxicity_at_diff_lengths.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>0-59</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>20-59</t>
+          <t>60-179</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>60-139</t>
+          <t>180-419</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>140-299</t>
+          <t>420-899</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>300-619</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>620-3519</t>
+          <t>900-3519</t>
         </is>
       </c>
     </row>
@@ -472,22 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.73529411764706</v>
+        <v>12.03653949489522</v>
       </c>
       <c r="C2" t="n">
-        <v>12.78577476714648</v>
+        <v>13.86138613861386</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7546468401487</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>17.5</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F2" t="n">
-        <v>29.62962962962963</v>
-      </c>
-      <c r="G2" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +488,9 @@
           <t>bror</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
@@ -507,9 +501,6 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
         <v>50</v>
       </c>
     </row>
@@ -520,15 +511,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -537,7 +527,9 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -545,9 +537,6 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,16 +546,15 @@
           <t>dreng</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
       <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,18 +564,17 @@
           <t>far</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -598,13 +585,12 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>100</v>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -612,18 +598,17 @@
           <t>fætter</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
       <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -631,16 +616,15 @@
           <t>herre</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -648,7 +632,9 @@
           <t>kone</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
@@ -656,13 +642,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -671,14 +654,13 @@
           <t>kusine</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -687,21 +669,18 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>20</v>
       </c>
     </row>
@@ -714,11 +693,10 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="E14" t="n">
         <v>100</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -727,21 +705,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="C15" t="n">
-        <v>8.695652173913043</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" t="n">
         <v>16.66666666666666</v>
       </c>
     </row>
@@ -751,14 +726,13 @@
           <t>mandfolk</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>100</v>
       </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -767,17 +741,14 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,20 +758,19 @@
           <t>pige</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,8 +784,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -826,15 +795,12 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -843,15 +809,14 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -866,7 +831,6 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
